--- a/DND/FINAL EXCEL/Sub-Category-Debit-Total-Final-May.xlsx
+++ b/DND/FINAL EXCEL/Sub-Category-Debit-Total-Final-May.xlsx
@@ -209,16 +209,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +530,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,10 +540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -716,7 +716,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -732,7 +732,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -740,7 +740,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
